--- a/DATA_goal/Junction_Flooding_1000.xlsx
+++ b/DATA_goal/Junction_Flooding_1000.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="7" customWidth="1" min="18" max="18"/>
-    <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
-    <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
-    <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="2" max="2"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="9" max="9"/>
+    <col width="5" customWidth="1" min="10" max="10"/>
+    <col width="5" customWidth="1" min="11" max="11"/>
+    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="18" max="18"/>
+    <col width="5" customWidth="1" min="19" max="19"/>
+    <col width="5" customWidth="1" min="20" max="20"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="27" max="27"/>
+    <col width="5" customWidth="1" min="28" max="28"/>
+    <col width="5" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44981.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.284</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.265</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.768</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.407</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.715</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.079</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>10.361</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>6.858</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.662</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.216</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.246</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.306</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.973</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.629</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.538</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.613</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.117</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>60.452</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>12.195</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.364</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.727</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.701</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.538</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.243</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.732</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.372</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>8.518000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -759,52 +759,52 @@
         <v>44981.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.225</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.015</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.262</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.397</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.9330000000000001</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.689</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.223</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.509</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.014</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.221</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.328</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0</v>
@@ -813,49 +813,49 @@
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.412</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.291</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.925</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.176</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.669</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.5590000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.612</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.575</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.237</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.565</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.338</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44981.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.042</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.143000000000001</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.529</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>22.314</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>18.789</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.401</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>27.003</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.88</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.823</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.061</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.035</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.466</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.892</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.845</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.622</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.249</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>118.286</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>22.911</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.33</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>15.27</v>
+        <v>0</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.891</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.122</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.901</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.716</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.605</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.68</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.156</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.175</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>24.131</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.328</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44981.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.61</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.32</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.86</v>
+        <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.39</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.79</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.09</v>
+        <v>0</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.94</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>44.03</v>
+        <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>0</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.41</v>
+        <v>0</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.66</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.93</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.31</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.39</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.91</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
